--- a/data/pca/factorExposure/factorExposure_2011-07-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02440307467191419</v>
+        <v>-0.01558262449328597</v>
       </c>
       <c r="C2">
-        <v>-0.004487209333588598</v>
+        <v>0.001222079716033807</v>
       </c>
       <c r="D2">
-        <v>-0.06069963840591434</v>
+        <v>0.0288483141397256</v>
       </c>
       <c r="E2">
-        <v>-0.03070107477632731</v>
+        <v>0.02066395691406721</v>
       </c>
       <c r="F2">
-        <v>0.01568330256243186</v>
+        <v>-0.01129395536380026</v>
       </c>
       <c r="G2">
-        <v>-0.0425019084374955</v>
+        <v>-0.02712182024870736</v>
       </c>
       <c r="H2">
-        <v>-0.0216754091160806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02683622220572979</v>
+      </c>
+      <c r="I2">
+        <v>0.03334364507809134</v>
+      </c>
+      <c r="J2">
+        <v>0.07000651982942231</v>
+      </c>
+      <c r="K2">
+        <v>0.03291898484089482</v>
+      </c>
+      <c r="L2">
+        <v>-0.04646935646096353</v>
+      </c>
+      <c r="M2">
+        <v>0.03010238431175685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06742112125048305</v>
+        <v>-0.09695147444979266</v>
       </c>
       <c r="C4">
-        <v>0.06681763721231325</v>
+        <v>-0.0732553584484279</v>
       </c>
       <c r="D4">
-        <v>-0.02484940592864845</v>
+        <v>0.00137296644486101</v>
       </c>
       <c r="E4">
-        <v>-0.02897629588725866</v>
+        <v>0.0697455156986216</v>
       </c>
       <c r="F4">
-        <v>-0.04653360886315228</v>
+        <v>-0.07586101596652725</v>
       </c>
       <c r="G4">
-        <v>-0.01954848744935918</v>
+        <v>-0.01665348502633774</v>
       </c>
       <c r="H4">
-        <v>0.02739149811652849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.08053724530700608</v>
+      </c>
+      <c r="I4">
+        <v>0.01020240765707875</v>
+      </c>
+      <c r="J4">
+        <v>-0.04313178623807306</v>
+      </c>
+      <c r="K4">
+        <v>-0.02797639030627936</v>
+      </c>
+      <c r="L4">
+        <v>-0.03965933993312386</v>
+      </c>
+      <c r="M4">
+        <v>0.02121726279585501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1277535078658747</v>
+        <v>-0.1312237675687637</v>
       </c>
       <c r="C6">
-        <v>0.04424993806778337</v>
+        <v>-0.04882452321571819</v>
       </c>
       <c r="D6">
-        <v>-0.06416245027808143</v>
+        <v>0.03070001361577958</v>
       </c>
       <c r="E6">
-        <v>-0.07426030980645643</v>
+        <v>0.006363673378182395</v>
       </c>
       <c r="F6">
-        <v>-0.07529194329150135</v>
+        <v>-0.06690057542942048</v>
       </c>
       <c r="G6">
-        <v>0.06390756408415948</v>
+        <v>0.153195074557237</v>
       </c>
       <c r="H6">
-        <v>-0.09448937644252688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.08028829495499044</v>
+      </c>
+      <c r="I6">
+        <v>0.3618778150417879</v>
+      </c>
+      <c r="J6">
+        <v>-0.2612858727051136</v>
+      </c>
+      <c r="K6">
+        <v>-0.06629586698731683</v>
+      </c>
+      <c r="L6">
+        <v>0.10759091024848</v>
+      </c>
+      <c r="M6">
+        <v>-0.005855976805309779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06526692583526632</v>
+        <v>-0.06819313129456715</v>
       </c>
       <c r="C7">
-        <v>0.05029586231685058</v>
+        <v>-0.07332759483382725</v>
       </c>
       <c r="D7">
-        <v>-0.05739862916144861</v>
+        <v>0.03832836847557351</v>
       </c>
       <c r="E7">
-        <v>-0.02648017754243975</v>
+        <v>0.0270046661255303</v>
       </c>
       <c r="F7">
-        <v>-0.03838220108977318</v>
+        <v>-0.02060153535951138</v>
       </c>
       <c r="G7">
-        <v>0.03663155219303826</v>
+        <v>-0.001189366148694564</v>
       </c>
       <c r="H7">
-        <v>-0.009643742028367496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.06636220916989465</v>
+      </c>
+      <c r="I7">
+        <v>-0.06727091137435826</v>
+      </c>
+      <c r="J7">
+        <v>0.02475048035545735</v>
+      </c>
+      <c r="K7">
+        <v>-0.01475665903101915</v>
+      </c>
+      <c r="L7">
+        <v>-0.04252019861212836</v>
+      </c>
+      <c r="M7">
+        <v>-0.1062828987873687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02233661707162516</v>
+        <v>-0.03511374903573133</v>
       </c>
       <c r="C8">
-        <v>0.01290923465235524</v>
+        <v>-0.009177282917436771</v>
       </c>
       <c r="D8">
-        <v>-0.03824903070394883</v>
+        <v>0.0141300420520503</v>
       </c>
       <c r="E8">
-        <v>-0.0797006679011793</v>
+        <v>0.07248095504693244</v>
       </c>
       <c r="F8">
-        <v>0.009130441283453826</v>
+        <v>-0.09379972998887467</v>
       </c>
       <c r="G8">
-        <v>0.006643187112419508</v>
+        <v>0.00412099689460904</v>
       </c>
       <c r="H8">
-        <v>-0.03478194165540411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.07377692796965704</v>
+      </c>
+      <c r="I8">
+        <v>-0.002975509655824227</v>
+      </c>
+      <c r="J8">
+        <v>-0.03651966492276396</v>
+      </c>
+      <c r="K8">
+        <v>-0.06186359188628408</v>
+      </c>
+      <c r="L8">
+        <v>-0.02207157846128479</v>
+      </c>
+      <c r="M8">
+        <v>0.07353025248206664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.06875996815939871</v>
+        <v>-0.08278427863866465</v>
       </c>
       <c r="C9">
-        <v>0.08137378385630871</v>
+        <v>-0.06797687944711338</v>
       </c>
       <c r="D9">
-        <v>-0.03213244536464305</v>
+        <v>0.002110157124902575</v>
       </c>
       <c r="E9">
-        <v>-0.02243210286519113</v>
+        <v>0.04833202026276642</v>
       </c>
       <c r="F9">
-        <v>-0.02378074606777787</v>
+        <v>-0.08255156620688288</v>
       </c>
       <c r="G9">
-        <v>-0.0188436426419617</v>
+        <v>-0.01485865971923703</v>
       </c>
       <c r="H9">
-        <v>0.02224275650946435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.08599998813873348</v>
+      </c>
+      <c r="I9">
+        <v>0.006123935122039757</v>
+      </c>
+      <c r="J9">
+        <v>-0.0092057016752622</v>
+      </c>
+      <c r="K9">
+        <v>-0.02104152421961262</v>
+      </c>
+      <c r="L9">
+        <v>-0.01347225566408583</v>
+      </c>
+      <c r="M9">
+        <v>0.01028428278451185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06155655165892507</v>
+        <v>-0.1076736002475478</v>
       </c>
       <c r="C10">
-        <v>-0.1361169956840624</v>
+        <v>0.1696629855333502</v>
       </c>
       <c r="D10">
-        <v>-0.0576296202850541</v>
+        <v>0.02221292619191928</v>
       </c>
       <c r="E10">
-        <v>-0.02459799807973346</v>
+        <v>0.04405025418102586</v>
       </c>
       <c r="F10">
-        <v>-0.01541312432799733</v>
+        <v>0.03833734846876372</v>
       </c>
       <c r="G10">
-        <v>0.04219935897150887</v>
+        <v>0.01599292558683948</v>
       </c>
       <c r="H10">
-        <v>-0.0491213331257352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.01112586443514643</v>
+      </c>
+      <c r="I10">
+        <v>-0.02168404425973337</v>
+      </c>
+      <c r="J10">
+        <v>0.04913833730937228</v>
+      </c>
+      <c r="K10">
+        <v>0.003343167838097876</v>
+      </c>
+      <c r="L10">
+        <v>0.03195354319457926</v>
+      </c>
+      <c r="M10">
+        <v>-0.04821666067612704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06391439853099629</v>
+        <v>-0.06760887106303397</v>
       </c>
       <c r="C11">
-        <v>0.08838667128237804</v>
+        <v>-0.0704575602586545</v>
       </c>
       <c r="D11">
-        <v>-0.04348126638656758</v>
+        <v>0.01945492489325991</v>
       </c>
       <c r="E11">
-        <v>-0.00664235673621478</v>
+        <v>0.02283689405602838</v>
       </c>
       <c r="F11">
-        <v>0.0302911194854301</v>
+        <v>-0.09231847913178087</v>
       </c>
       <c r="G11">
-        <v>-0.02480447111350943</v>
+        <v>-0.01637016166673638</v>
       </c>
       <c r="H11">
-        <v>0.01453614932204799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.06198418691068505</v>
+      </c>
+      <c r="I11">
+        <v>-0.05656272840577453</v>
+      </c>
+      <c r="J11">
+        <v>0.09333459951681224</v>
+      </c>
+      <c r="K11">
+        <v>0.008929769732956663</v>
+      </c>
+      <c r="L11">
+        <v>0.05997027766890144</v>
+      </c>
+      <c r="M11">
+        <v>0.002180871217336444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05825524048170281</v>
+        <v>-0.06855444827864079</v>
       </c>
       <c r="C12">
-        <v>0.05253229456166093</v>
+        <v>-0.05990778320399574</v>
       </c>
       <c r="D12">
-        <v>-0.02035116124312972</v>
+        <v>0.003635059746364265</v>
       </c>
       <c r="E12">
-        <v>-0.01183590726769765</v>
+        <v>0.0275414977471991</v>
       </c>
       <c r="F12">
-        <v>-0.01428989848461585</v>
+        <v>-0.09263025027157075</v>
       </c>
       <c r="G12">
-        <v>0.01324378228484224</v>
+        <v>-0.01308017266358409</v>
       </c>
       <c r="H12">
-        <v>0.02082469306950024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.07385248906233441</v>
+      </c>
+      <c r="I12">
+        <v>-0.04979045444406725</v>
+      </c>
+      <c r="J12">
+        <v>0.0933257722608017</v>
+      </c>
+      <c r="K12">
+        <v>-0.05742304169460222</v>
+      </c>
+      <c r="L12">
+        <v>0.05568828199610672</v>
+      </c>
+      <c r="M12">
+        <v>0.01130293218348829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.0487964772517161</v>
+        <v>-0.0498593955483448</v>
       </c>
       <c r="C13">
-        <v>0.02647789384771815</v>
+        <v>-0.03762195639609451</v>
       </c>
       <c r="D13">
-        <v>-0.01051560922035055</v>
+        <v>-0.001785090183776432</v>
       </c>
       <c r="E13">
-        <v>-0.01257389851257681</v>
+        <v>0.03505862739932143</v>
       </c>
       <c r="F13">
-        <v>0.00324027673943954</v>
+        <v>-0.03074114849855842</v>
       </c>
       <c r="G13">
-        <v>-0.02579668767463359</v>
+        <v>-0.01935845750553175</v>
       </c>
       <c r="H13">
-        <v>0.04590628071051699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.04571264112928277</v>
+      </c>
+      <c r="I13">
+        <v>-0.03369176576820278</v>
+      </c>
+      <c r="J13">
+        <v>-0.03848642662388915</v>
+      </c>
+      <c r="K13">
+        <v>-0.05653124045686944</v>
+      </c>
+      <c r="L13">
+        <v>-0.04117934263997042</v>
+      </c>
+      <c r="M13">
+        <v>-0.01336766936406818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04238698290344474</v>
+        <v>-0.04541426910938434</v>
       </c>
       <c r="C14">
-        <v>0.01894376192001301</v>
+        <v>-0.02685081220255725</v>
       </c>
       <c r="D14">
-        <v>-0.01935249965841061</v>
+        <v>0.01286294615012161</v>
       </c>
       <c r="E14">
-        <v>-0.00732658288851089</v>
+        <v>0.01608301155457616</v>
       </c>
       <c r="F14">
-        <v>-0.04980454410128947</v>
+        <v>-0.05497295528583199</v>
       </c>
       <c r="G14">
-        <v>-0.004469782930116498</v>
+        <v>-0.04207906779631658</v>
       </c>
       <c r="H14">
-        <v>-0.03541129519839437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.06598377832487173</v>
+      </c>
+      <c r="I14">
+        <v>0.002494682344222439</v>
+      </c>
+      <c r="J14">
+        <v>-0.03379775566947386</v>
+      </c>
+      <c r="K14">
+        <v>0.0001427371661809034</v>
+      </c>
+      <c r="L14">
+        <v>-0.0123631095512745</v>
+      </c>
+      <c r="M14">
+        <v>-0.027399835525224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03496122846870074</v>
+        <v>-0.03360934951568207</v>
       </c>
       <c r="C15">
-        <v>-0.004733060683068299</v>
+        <v>-0.01348312694363381</v>
       </c>
       <c r="D15">
-        <v>0.006336096052172368</v>
+        <v>-0.01259043289514005</v>
       </c>
       <c r="E15">
-        <v>-0.02601108383225632</v>
+        <v>0.01154079572613361</v>
       </c>
       <c r="F15">
-        <v>-0.03055159250247683</v>
+        <v>-0.0202092157140463</v>
       </c>
       <c r="G15">
-        <v>-0.0037276535725695</v>
+        <v>0.008323161055133617</v>
       </c>
       <c r="H15">
-        <v>0.01612873749588224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04388609554589844</v>
+      </c>
+      <c r="I15">
+        <v>-0.017493922081802</v>
+      </c>
+      <c r="J15">
+        <v>-0.05982026456760343</v>
+      </c>
+      <c r="K15">
+        <v>-0.009317115076763107</v>
+      </c>
+      <c r="L15">
+        <v>-0.01152873894076926</v>
+      </c>
+      <c r="M15">
+        <v>-0.001398492843121475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04845140545738054</v>
+        <v>-0.06965308821236926</v>
       </c>
       <c r="C16">
-        <v>0.07901223919542107</v>
+        <v>-0.07668495697483772</v>
       </c>
       <c r="D16">
-        <v>-0.02388817053714667</v>
+        <v>0.006781493571460047</v>
       </c>
       <c r="E16">
-        <v>-0.02280440264450271</v>
+        <v>0.03472320249446278</v>
       </c>
       <c r="F16">
-        <v>-0.02087505795878383</v>
+        <v>-0.0844272224656413</v>
       </c>
       <c r="G16">
-        <v>-0.02354432657254658</v>
+        <v>-0.01664181811033147</v>
       </c>
       <c r="H16">
-        <v>-0.001665063731643093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.08164006692860507</v>
+      </c>
+      <c r="I16">
+        <v>-0.05068410336673302</v>
+      </c>
+      <c r="J16">
+        <v>0.08318717291902548</v>
+      </c>
+      <c r="K16">
+        <v>-0.00673453278779055</v>
+      </c>
+      <c r="L16">
+        <v>0.03195616289037784</v>
+      </c>
+      <c r="M16">
+        <v>0.001036103734627917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.03840740344275266</v>
+        <v>-0.04293474770348536</v>
       </c>
       <c r="C20">
-        <v>0.04428598875695716</v>
+        <v>-0.03634344644056656</v>
       </c>
       <c r="D20">
-        <v>-0.02863092538855449</v>
+        <v>0.01805181842309266</v>
       </c>
       <c r="E20">
-        <v>-0.01884365976323946</v>
+        <v>0.01727698427420375</v>
       </c>
       <c r="F20">
-        <v>-0.0206398773963503</v>
+        <v>-0.0678149153064318</v>
       </c>
       <c r="G20">
-        <v>-0.02376902846274375</v>
+        <v>-0.02882618971887076</v>
       </c>
       <c r="H20">
-        <v>0.01973881670439274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.07650528104383376</v>
+      </c>
+      <c r="I20">
+        <v>-0.02052127713210316</v>
+      </c>
+      <c r="J20">
+        <v>0.04380928940217101</v>
+      </c>
+      <c r="K20">
+        <v>-0.05493222787346147</v>
+      </c>
+      <c r="L20">
+        <v>-0.005133810454884656</v>
+      </c>
+      <c r="M20">
+        <v>0.003303181266899552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.009929472340759823</v>
+        <v>-0.02481053033016206</v>
       </c>
       <c r="C21">
-        <v>0.01117502033634261</v>
+        <v>-0.01178688337972785</v>
       </c>
       <c r="D21">
-        <v>0.01566967011555614</v>
+        <v>-0.01929906862425164</v>
       </c>
       <c r="E21">
-        <v>-0.0826728328076454</v>
+        <v>0.03936435235287481</v>
       </c>
       <c r="F21">
-        <v>0.003222475231356823</v>
+        <v>-0.03935201089146578</v>
       </c>
       <c r="G21">
-        <v>0.08352736570354374</v>
+        <v>0.08918070903037631</v>
       </c>
       <c r="H21">
-        <v>0.01372652912646791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.04719054566693624</v>
+      </c>
+      <c r="I21">
+        <v>-0.02681221738721658</v>
+      </c>
+      <c r="J21">
+        <v>-0.07092013144092239</v>
+      </c>
+      <c r="K21">
+        <v>-0.0556964379745291</v>
+      </c>
+      <c r="L21">
+        <v>0.01254264437344913</v>
+      </c>
+      <c r="M21">
+        <v>-0.0861992747104752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.03075710194729075</v>
+        <v>-0.05126867436833975</v>
       </c>
       <c r="C22">
-        <v>0.06421505393714944</v>
+        <v>-0.06393921086184766</v>
       </c>
       <c r="D22">
-        <v>0.1136646474170333</v>
+        <v>-0.3706823069851827</v>
       </c>
       <c r="E22">
-        <v>-0.4199607146167722</v>
+        <v>0.4704647374407828</v>
       </c>
       <c r="F22">
-        <v>-0.2155471718040754</v>
+        <v>0.2889275517707408</v>
       </c>
       <c r="G22">
-        <v>-0.02556456101786161</v>
+        <v>0.01386860732957888</v>
       </c>
       <c r="H22">
-        <v>0.3124075065714932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.08665623948285367</v>
+      </c>
+      <c r="I22">
+        <v>0.06040990745681592</v>
+      </c>
+      <c r="J22">
+        <v>-0.005046982482261482</v>
+      </c>
+      <c r="K22">
+        <v>0.009977433237590053</v>
+      </c>
+      <c r="L22">
+        <v>-0.0826918473439953</v>
+      </c>
+      <c r="M22">
+        <v>-0.0433869224782951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.03165731263747572</v>
+        <v>-0.05199897025763477</v>
       </c>
       <c r="C23">
-        <v>0.06307009553608252</v>
+        <v>-0.0641979675140084</v>
       </c>
       <c r="D23">
-        <v>0.113125524090748</v>
+        <v>-0.3717382369650933</v>
       </c>
       <c r="E23">
-        <v>-0.4217449475189845</v>
+        <v>0.4734718216121546</v>
       </c>
       <c r="F23">
-        <v>-0.2133302012334244</v>
+        <v>0.2848507530784484</v>
       </c>
       <c r="G23">
-        <v>-0.0246616497107844</v>
+        <v>0.01333595690765239</v>
       </c>
       <c r="H23">
-        <v>0.3086215389107014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.08710135432699563</v>
+      </c>
+      <c r="I23">
+        <v>0.0653293604370327</v>
+      </c>
+      <c r="J23">
+        <v>-0.006995208165341837</v>
+      </c>
+      <c r="K23">
+        <v>0.01163300692928775</v>
+      </c>
+      <c r="L23">
+        <v>-0.08091192563646375</v>
+      </c>
+      <c r="M23">
+        <v>-0.04216023388649275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.0689789535441116</v>
+        <v>-0.07434663381619687</v>
       </c>
       <c r="C24">
-        <v>0.07955278773234391</v>
+        <v>-0.07436550811295703</v>
       </c>
       <c r="D24">
-        <v>-0.04196580710886833</v>
+        <v>0.005486111625363857</v>
       </c>
       <c r="E24">
-        <v>-0.04357583268167615</v>
+        <v>0.0413625031445889</v>
       </c>
       <c r="F24">
-        <v>0.00993373984895111</v>
+        <v>-0.08917203677479785</v>
       </c>
       <c r="G24">
-        <v>-0.01369368232862899</v>
+        <v>-0.01005451282939357</v>
       </c>
       <c r="H24">
-        <v>0.0002913352348144062</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.06570959965406888</v>
+      </c>
+      <c r="I24">
+        <v>-0.02615687793990186</v>
+      </c>
+      <c r="J24">
+        <v>0.08210857069493062</v>
+      </c>
+      <c r="K24">
+        <v>-0.01753709173717744</v>
+      </c>
+      <c r="L24">
+        <v>0.05004348208566554</v>
+      </c>
+      <c r="M24">
+        <v>0.005698400644049665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06029551187856758</v>
+        <v>-0.07116599793255921</v>
       </c>
       <c r="C25">
-        <v>0.04096030545622074</v>
+        <v>-0.04663428344947491</v>
       </c>
       <c r="D25">
-        <v>-0.04138916367719415</v>
+        <v>0.01474091167066554</v>
       </c>
       <c r="E25">
-        <v>-0.03994684317755543</v>
+        <v>0.0339221291308894</v>
       </c>
       <c r="F25">
-        <v>-0.007647550107983757</v>
+        <v>-0.09079006568398651</v>
       </c>
       <c r="G25">
-        <v>-0.03330661928487146</v>
+        <v>-0.03338033493410675</v>
       </c>
       <c r="H25">
-        <v>-0.02004200944347364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.08084914002981358</v>
+      </c>
+      <c r="I25">
+        <v>-0.01619437493004946</v>
+      </c>
+      <c r="J25">
+        <v>0.1046922509651768</v>
+      </c>
+      <c r="K25">
+        <v>-0.001970859298484546</v>
+      </c>
+      <c r="L25">
+        <v>0.04820540781499889</v>
+      </c>
+      <c r="M25">
+        <v>0.008686979161095641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03555196926430059</v>
+        <v>-0.03980800608955833</v>
       </c>
       <c r="C26">
-        <v>0.02404402210869844</v>
+        <v>-0.02394396785478667</v>
       </c>
       <c r="D26">
-        <v>-0.03440130529118381</v>
+        <v>-0.01371989392927873</v>
       </c>
       <c r="E26">
-        <v>0.00285178433632834</v>
+        <v>0.02786724781967481</v>
       </c>
       <c r="F26">
-        <v>-0.03630143247258746</v>
+        <v>-0.03505621462191085</v>
       </c>
       <c r="G26">
-        <v>0.009441520815392592</v>
+        <v>-0.003063152542724919</v>
       </c>
       <c r="H26">
-        <v>0.02363164375600353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.05172062955738534</v>
+      </c>
+      <c r="I26">
+        <v>-0.06027404970908785</v>
+      </c>
+      <c r="J26">
+        <v>-0.09870048099057371</v>
+      </c>
+      <c r="K26">
+        <v>-0.02384092613965776</v>
+      </c>
+      <c r="L26">
+        <v>-0.04015673277419148</v>
+      </c>
+      <c r="M26">
+        <v>-0.121896951852932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1158552907305212</v>
+        <v>-0.139321544118447</v>
       </c>
       <c r="C28">
-        <v>-0.294619557567683</v>
+        <v>0.2877538243134957</v>
       </c>
       <c r="D28">
-        <v>-0.05276816168929113</v>
+        <v>0.01653842477733941</v>
       </c>
       <c r="E28">
-        <v>-0.001806272662198002</v>
+        <v>0.02793366937881281</v>
       </c>
       <c r="F28">
-        <v>-0.02743115915728713</v>
+        <v>0.005453311026062038</v>
       </c>
       <c r="G28">
-        <v>0.06920554053354995</v>
+        <v>0.02766855819568928</v>
       </c>
       <c r="H28">
-        <v>-0.005692533053856115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.003945777084804445</v>
+      </c>
+      <c r="I28">
+        <v>-0.02149645013501461</v>
+      </c>
+      <c r="J28">
+        <v>-0.03935077880176351</v>
+      </c>
+      <c r="K28">
+        <v>-0.009378814494218452</v>
+      </c>
+      <c r="L28">
+        <v>-0.03414990722074186</v>
+      </c>
+      <c r="M28">
+        <v>0.02756945069202324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04612832865770099</v>
+        <v>-0.04511576800536574</v>
       </c>
       <c r="C29">
-        <v>0.008155030250746596</v>
+        <v>-0.02250749709981975</v>
       </c>
       <c r="D29">
-        <v>-0.01192647052330639</v>
+        <v>0.009688242092292848</v>
       </c>
       <c r="E29">
-        <v>-0.02623647552450956</v>
+        <v>0.02318306370568136</v>
       </c>
       <c r="F29">
-        <v>-0.04037067547810586</v>
+        <v>-0.04811651483361394</v>
       </c>
       <c r="G29">
-        <v>-0.01928914885606008</v>
+        <v>-0.05242660172195937</v>
       </c>
       <c r="H29">
-        <v>-0.01044383824791535</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.0550559873586375</v>
+      </c>
+      <c r="I29">
+        <v>0.006505248743309097</v>
+      </c>
+      <c r="J29">
+        <v>-0.01439590636232818</v>
+      </c>
+      <c r="K29">
+        <v>-0.004031978737613994</v>
+      </c>
+      <c r="L29">
+        <v>-0.01906654249028928</v>
+      </c>
+      <c r="M29">
+        <v>-0.01775034790125304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1188941278375908</v>
+        <v>-0.1027779880419289</v>
       </c>
       <c r="C30">
-        <v>0.07356674644616119</v>
+        <v>-0.06646267537302336</v>
       </c>
       <c r="D30">
-        <v>-0.07365227008601172</v>
+        <v>0.007282265043868424</v>
       </c>
       <c r="E30">
-        <v>-0.05067678698838006</v>
+        <v>0.08354151054820599</v>
       </c>
       <c r="F30">
-        <v>-0.05103252190759962</v>
+        <v>-0.1372294622323131</v>
       </c>
       <c r="G30">
-        <v>0.01370931210348343</v>
+        <v>0.03817726154874276</v>
       </c>
       <c r="H30">
-        <v>0.007275997571672221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1582371316693632</v>
+      </c>
+      <c r="I30">
+        <v>0.02858473600043656</v>
+      </c>
+      <c r="J30">
+        <v>0.06471075344315977</v>
+      </c>
+      <c r="K30">
+        <v>-0.1818341792097825</v>
+      </c>
+      <c r="L30">
+        <v>-0.3736723452598088</v>
+      </c>
+      <c r="M30">
+        <v>0.2026628721875695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04797605992852366</v>
+        <v>-0.03421464810308851</v>
       </c>
       <c r="C31">
-        <v>0.02058574385608678</v>
+        <v>-0.04267301940331569</v>
       </c>
       <c r="D31">
-        <v>-0.001850951660359988</v>
+        <v>-0.01027280607638551</v>
       </c>
       <c r="E31">
-        <v>0.008183400414864707</v>
+        <v>0.001793690310473683</v>
       </c>
       <c r="F31">
-        <v>-0.02305989723277279</v>
+        <v>-0.01302571465538559</v>
       </c>
       <c r="G31">
-        <v>-0.0228582190190493</v>
+        <v>-0.05123612831379615</v>
       </c>
       <c r="H31">
-        <v>0.03643077578039711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03292126245334579</v>
+      </c>
+      <c r="I31">
+        <v>-0.004890477248236678</v>
+      </c>
+      <c r="J31">
+        <v>-0.002778826821619508</v>
+      </c>
+      <c r="K31">
+        <v>-0.03275473180543197</v>
+      </c>
+      <c r="L31">
+        <v>0.00846244893809937</v>
+      </c>
+      <c r="M31">
+        <v>0.006049289883370366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.0227402277073669</v>
+        <v>-0.0460893483232748</v>
       </c>
       <c r="C32">
-        <v>-0.004811046120001159</v>
+        <v>0.004416301555416224</v>
       </c>
       <c r="D32">
-        <v>0.03896691500855767</v>
+        <v>-0.03434957577240839</v>
       </c>
       <c r="E32">
-        <v>-0.07679612885714168</v>
+        <v>0.04511593644266575</v>
       </c>
       <c r="F32">
-        <v>-0.01083600944924963</v>
+        <v>-0.04522012671509371</v>
       </c>
       <c r="G32">
-        <v>-0.01424288014326085</v>
+        <v>0.004381687892332632</v>
       </c>
       <c r="H32">
-        <v>0.05529904894606701</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.01341061530263669</v>
+      </c>
+      <c r="I32">
+        <v>-0.06696428894774173</v>
+      </c>
+      <c r="J32">
+        <v>-0.06501624655901493</v>
+      </c>
+      <c r="K32">
+        <v>-0.02006291130123666</v>
+      </c>
+      <c r="L32">
+        <v>-0.1249918143061183</v>
+      </c>
+      <c r="M32">
+        <v>0.07940874022962227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.09789287226284532</v>
+        <v>-0.09782364501653137</v>
       </c>
       <c r="C33">
-        <v>0.06060052432111425</v>
+        <v>-0.06665245054694829</v>
       </c>
       <c r="D33">
-        <v>-0.01174682970648383</v>
+        <v>-0.02222686261187387</v>
       </c>
       <c r="E33">
-        <v>-0.002692949126378322</v>
+        <v>0.009795380938566398</v>
       </c>
       <c r="F33">
-        <v>-0.02094292005717631</v>
+        <v>-0.05726450987821788</v>
       </c>
       <c r="G33">
-        <v>-0.03325759646882329</v>
+        <v>-0.05210968589837408</v>
       </c>
       <c r="H33">
-        <v>0.03536318571313336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.05011633418637782</v>
+      </c>
+      <c r="I33">
+        <v>-0.002470939821538658</v>
+      </c>
+      <c r="J33">
+        <v>-0.0243654122586514</v>
+      </c>
+      <c r="K33">
+        <v>-0.03613599002497768</v>
+      </c>
+      <c r="L33">
+        <v>0.01031345385060534</v>
+      </c>
+      <c r="M33">
+        <v>0.03265845066440396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05111632534610815</v>
+        <v>-0.06219726208929306</v>
       </c>
       <c r="C34">
-        <v>0.07450948139325887</v>
+        <v>-0.06169962447597525</v>
       </c>
       <c r="D34">
-        <v>-0.02433229809993817</v>
+        <v>0.007364965808668914</v>
       </c>
       <c r="E34">
-        <v>-0.04485726577995536</v>
+        <v>0.02225742220260854</v>
       </c>
       <c r="F34">
-        <v>-0.01235864504168251</v>
+        <v>-0.08216416228056547</v>
       </c>
       <c r="G34">
-        <v>-0.0170625935501769</v>
+        <v>-0.02841367685309711</v>
       </c>
       <c r="H34">
-        <v>-0.001144278909599321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.06898125404050538</v>
+      </c>
+      <c r="I34">
+        <v>-0.02431014021449435</v>
+      </c>
+      <c r="J34">
+        <v>0.07635068658888562</v>
+      </c>
+      <c r="K34">
+        <v>-0.01536191466812905</v>
+      </c>
+      <c r="L34">
+        <v>0.05406161290168878</v>
+      </c>
+      <c r="M34">
+        <v>-0.01265423405613031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03687696827425509</v>
+        <v>-0.02987526163324013</v>
       </c>
       <c r="C35">
-        <v>0.01716996991100339</v>
+        <v>-0.02365727588918041</v>
       </c>
       <c r="D35">
-        <v>-0.005031171757505772</v>
+        <v>-0.002447422933624864</v>
       </c>
       <c r="E35">
-        <v>-0.01908611815301084</v>
+        <v>0.0008868901510792667</v>
       </c>
       <c r="F35">
-        <v>-0.03773486823760017</v>
+        <v>-0.0148791804530231</v>
       </c>
       <c r="G35">
-        <v>-0.02700423014875454</v>
+        <v>-0.02027275474565271</v>
       </c>
       <c r="H35">
-        <v>0.03997036997401768</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.06146314324516394</v>
+      </c>
+      <c r="I35">
+        <v>-0.02556391722994256</v>
+      </c>
+      <c r="J35">
+        <v>0.03747909250738732</v>
+      </c>
+      <c r="K35">
+        <v>-0.02190588703767558</v>
+      </c>
+      <c r="L35">
+        <v>-0.02530901634878421</v>
+      </c>
+      <c r="M35">
+        <v>-0.008381459537737751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02516071119764396</v>
+        <v>-0.03051311451594109</v>
       </c>
       <c r="C36">
-        <v>0.0136932580618229</v>
+        <v>-0.01860460452984195</v>
       </c>
       <c r="D36">
-        <v>-0.02419826841999001</v>
+        <v>-0.0001429388372344012</v>
       </c>
       <c r="E36">
-        <v>-0.02725471592735041</v>
+        <v>0.03220572211772541</v>
       </c>
       <c r="F36">
-        <v>-0.02281671818584574</v>
+        <v>-0.04922489370666312</v>
       </c>
       <c r="G36">
-        <v>-0.01696214409549624</v>
+        <v>-0.02168711352146838</v>
       </c>
       <c r="H36">
-        <v>0.01306074873700962</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.06166900031657385</v>
+      </c>
+      <c r="I36">
+        <v>-0.01219342573838221</v>
+      </c>
+      <c r="J36">
+        <v>-0.0149358556680826</v>
+      </c>
+      <c r="K36">
+        <v>-0.03258799209481111</v>
+      </c>
+      <c r="L36">
+        <v>0.01183095087338795</v>
+      </c>
+      <c r="M36">
+        <v>-0.06141947923896632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04029136477292564</v>
+        <v>-0.0339755510312296</v>
       </c>
       <c r="C38">
-        <v>0.02574873243441821</v>
+        <v>-0.04784665447218439</v>
       </c>
       <c r="D38">
-        <v>0.02874481535355019</v>
+        <v>-0.01175862762974232</v>
       </c>
       <c r="E38">
-        <v>-0.05199826911655089</v>
+        <v>0.01737576630299632</v>
       </c>
       <c r="F38">
-        <v>-0.00570709395406674</v>
+        <v>0.04952985751270542</v>
       </c>
       <c r="G38">
-        <v>0.009580140996545347</v>
+        <v>-0.01776974703539081</v>
       </c>
       <c r="H38">
-        <v>0.03630469149733229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.083484560053389</v>
+      </c>
+      <c r="I38">
+        <v>-0.03365939439886716</v>
+      </c>
+      <c r="J38">
+        <v>-0.08876157739776611</v>
+      </c>
+      <c r="K38">
+        <v>0.04739467423827736</v>
+      </c>
+      <c r="L38">
+        <v>-0.0650202045907535</v>
+      </c>
+      <c r="M38">
+        <v>-0.06399725653797878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09292533897877388</v>
+        <v>-0.09279152688083993</v>
       </c>
       <c r="C39">
-        <v>0.09499513666076989</v>
+        <v>-0.07828930523196223</v>
       </c>
       <c r="D39">
-        <v>-0.01729993066169683</v>
+        <v>0.0004542235014309395</v>
       </c>
       <c r="E39">
-        <v>-0.04281068396699185</v>
+        <v>0.0346383552892153</v>
       </c>
       <c r="F39">
-        <v>0.01488851768028752</v>
+        <v>-0.09221318399336298</v>
       </c>
       <c r="G39">
-        <v>-0.006021423435138356</v>
+        <v>-0.01985003575978</v>
       </c>
       <c r="H39">
-        <v>-0.01193697831063947</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08327191481172132</v>
+      </c>
+      <c r="I39">
+        <v>-0.08680237043044628</v>
+      </c>
+      <c r="J39">
+        <v>0.1607404422135714</v>
+      </c>
+      <c r="K39">
+        <v>-0.04004099673335502</v>
+      </c>
+      <c r="L39">
+        <v>-0.08236887624170473</v>
+      </c>
+      <c r="M39">
+        <v>0.05507024193709671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.06131771290011839</v>
+        <v>-0.03904792283495626</v>
       </c>
       <c r="C40">
-        <v>0.02087681308674536</v>
+        <v>-0.05583623332140606</v>
       </c>
       <c r="D40">
-        <v>0.02037853281906505</v>
+        <v>-0.05815375243675368</v>
       </c>
       <c r="E40">
-        <v>-0.177143863120152</v>
+        <v>0.06008377653484602</v>
       </c>
       <c r="F40">
-        <v>-0.07284795897614743</v>
+        <v>-0.1148340273749057</v>
       </c>
       <c r="G40">
-        <v>-0.03105336114824331</v>
+        <v>0.05222120097399512</v>
       </c>
       <c r="H40">
-        <v>0.009755289832249978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.02098430035578866</v>
+      </c>
+      <c r="I40">
+        <v>-0.07495855843617599</v>
+      </c>
+      <c r="J40">
+        <v>0.03278718763158407</v>
+      </c>
+      <c r="K40">
+        <v>-0.02164424642421445</v>
+      </c>
+      <c r="L40">
+        <v>-0.08869722590944752</v>
+      </c>
+      <c r="M40">
+        <v>-0.1032581457029308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04278340216031609</v>
+        <v>-0.03657477745665211</v>
       </c>
       <c r="C41">
-        <v>0.04779573106549541</v>
+        <v>-0.03650190116754922</v>
       </c>
       <c r="D41">
-        <v>-0.004467361620989451</v>
+        <v>0.01617955681407059</v>
       </c>
       <c r="E41">
-        <v>-0.004182513310917363</v>
+        <v>-0.01995938305345734</v>
       </c>
       <c r="F41">
-        <v>-0.01591589383275105</v>
+        <v>-0.03626064652058628</v>
       </c>
       <c r="G41">
-        <v>-0.01513622622595213</v>
+        <v>-0.02481182325537538</v>
       </c>
       <c r="H41">
-        <v>0.01413122434373761</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.004437970059434575</v>
+      </c>
+      <c r="I41">
+        <v>-0.03705887452804904</v>
+      </c>
+      <c r="J41">
+        <v>0.004420067722167334</v>
+      </c>
+      <c r="K41">
+        <v>-0.01724392496515411</v>
+      </c>
+      <c r="L41">
+        <v>-0.003583393699776741</v>
+      </c>
+      <c r="M41">
+        <v>0.009414691158436189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05293950107184273</v>
+        <v>-0.05211492050214236</v>
       </c>
       <c r="C43">
-        <v>0.04179543877205946</v>
+        <v>-0.05005127681060783</v>
       </c>
       <c r="D43">
-        <v>-0.02300037014359957</v>
+        <v>0.007802591469016216</v>
       </c>
       <c r="E43">
-        <v>-0.02625714907239992</v>
+        <v>0.02176552876898253</v>
       </c>
       <c r="F43">
-        <v>-0.006488483406580704</v>
+        <v>-0.01278630982978356</v>
       </c>
       <c r="G43">
-        <v>0.005236257719061098</v>
+        <v>-0.04606566861631707</v>
       </c>
       <c r="H43">
-        <v>0.06166945533517595</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.004734341779693254</v>
+      </c>
+      <c r="I43">
+        <v>-0.02059511331921399</v>
+      </c>
+      <c r="J43">
+        <v>0.009281561329291707</v>
+      </c>
+      <c r="K43">
+        <v>-0.01963146938708541</v>
+      </c>
+      <c r="L43">
+        <v>0.02533616399321308</v>
+      </c>
+      <c r="M43">
+        <v>-0.005278417121043367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.0484412015835752</v>
+        <v>-0.08442262355617973</v>
       </c>
       <c r="C44">
-        <v>0.02807658400531727</v>
+        <v>-0.06157415580360588</v>
       </c>
       <c r="D44">
-        <v>-0.06423081659684572</v>
+        <v>0.009861067632282674</v>
       </c>
       <c r="E44">
-        <v>-0.1233417281963009</v>
+        <v>0.1506488086782001</v>
       </c>
       <c r="F44">
-        <v>-0.03168895454088073</v>
+        <v>-0.127618213571815</v>
       </c>
       <c r="G44">
-        <v>-0.009549572923664304</v>
+        <v>-0.02031219333258528</v>
       </c>
       <c r="H44">
-        <v>-0.030074671135781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.1127671709612925</v>
+      </c>
+      <c r="I44">
+        <v>-0.0585207887062368</v>
+      </c>
+      <c r="J44">
+        <v>0.04009985555581175</v>
+      </c>
+      <c r="K44">
+        <v>0.004462539983932048</v>
+      </c>
+      <c r="L44">
+        <v>-0.06094377585623862</v>
+      </c>
+      <c r="M44">
+        <v>-0.06692907543211611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,166 +2548,271 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01974663804561432</v>
+        <v>-0.03998371727768309</v>
       </c>
       <c r="C46">
-        <v>0.0336976347405348</v>
+        <v>-0.0422413526251536</v>
       </c>
       <c r="D46">
-        <v>-0.01313583260238152</v>
+        <v>0.001880179433302227</v>
       </c>
       <c r="E46">
-        <v>-0.05284092420972736</v>
+        <v>0.03990297429938295</v>
       </c>
       <c r="F46">
-        <v>-0.02692474811116969</v>
+        <v>-0.0223814338952694</v>
       </c>
       <c r="G46">
-        <v>-0.007812419097519868</v>
+        <v>-0.02287045662074283</v>
       </c>
       <c r="H46">
-        <v>-0.01068916823791336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.06108547228548264</v>
+      </c>
+      <c r="I46">
+        <v>-0.009826983462729139</v>
+      </c>
+      <c r="J46">
+        <v>-0.05504903170739164</v>
+      </c>
+      <c r="K46">
+        <v>-0.004975127763321685</v>
+      </c>
+      <c r="L46">
+        <v>-0.008588814606715619</v>
+      </c>
+      <c r="M46">
+        <v>-0.0429363851403183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02915661838358713</v>
+        <v>-0.04413885225807467</v>
       </c>
       <c r="C47">
-        <v>-0.007435659823071642</v>
+        <v>-0.0262604916939896</v>
       </c>
       <c r="D47">
-        <v>0.006620975262149007</v>
+        <v>-0.01935383428955072</v>
       </c>
       <c r="E47">
-        <v>-0.06018739614077803</v>
+        <v>0.027483504997119</v>
       </c>
       <c r="F47">
-        <v>-0.039753945316662</v>
+        <v>-0.01809888260398091</v>
       </c>
       <c r="G47">
-        <v>-0.03043412750245491</v>
+        <v>-0.03555543721141289</v>
       </c>
       <c r="H47">
-        <v>0.001474320667856984</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02313044352024887</v>
+      </c>
+      <c r="I47">
+        <v>0.02500987789883649</v>
+      </c>
+      <c r="J47">
+        <v>-0.002705094178081727</v>
+      </c>
+      <c r="K47">
+        <v>-0.03520684499566937</v>
+      </c>
+      <c r="L47">
+        <v>0.03971350202793292</v>
+      </c>
+      <c r="M47">
+        <v>-0.04758905407144118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03410451455111526</v>
+        <v>-0.04174597201103407</v>
       </c>
       <c r="C48">
-        <v>0.02093819131693568</v>
+        <v>-0.01827146549628553</v>
       </c>
       <c r="D48">
-        <v>-0.005607928517180679</v>
+        <v>-0.02502332894485958</v>
       </c>
       <c r="E48">
-        <v>-0.04228304782611195</v>
+        <v>0.03487443559116803</v>
       </c>
       <c r="F48">
-        <v>-0.03842505309290278</v>
+        <v>-0.03454735332153197</v>
       </c>
       <c r="G48">
-        <v>-0.01330769737009148</v>
+        <v>0.00653893178883781</v>
       </c>
       <c r="H48">
-        <v>0.04520699829883025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.07082819331888657</v>
+      </c>
+      <c r="I48">
+        <v>-0.02478473011581063</v>
+      </c>
+      <c r="J48">
+        <v>0.003188523194301205</v>
+      </c>
+      <c r="K48">
+        <v>-0.06089991514699233</v>
+      </c>
+      <c r="L48">
+        <v>-0.004854944935774068</v>
+      </c>
+      <c r="M48">
+        <v>-0.04729566729074725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1866016180787491</v>
+        <v>-0.2229237955547927</v>
       </c>
       <c r="C49">
-        <v>0.1179321516100779</v>
+        <v>-0.081077923987444</v>
       </c>
       <c r="D49">
-        <v>-0.07410988113231778</v>
+        <v>0.09724580953228863</v>
       </c>
       <c r="E49">
-        <v>0.07490118242145224</v>
+        <v>-0.08787748750455267</v>
       </c>
       <c r="F49">
-        <v>-0.03420782788189488</v>
+        <v>0.2022568835023301</v>
       </c>
       <c r="G49">
-        <v>0.1698606192409967</v>
+        <v>0.1941317825874503</v>
       </c>
       <c r="H49">
-        <v>-0.09210115272458715</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.001325918340185022</v>
+      </c>
+      <c r="I49">
+        <v>-0.05897291372011185</v>
+      </c>
+      <c r="J49">
+        <v>0.1213834796426494</v>
+      </c>
+      <c r="K49">
+        <v>0.1739726166573794</v>
+      </c>
+      <c r="L49">
+        <v>0.1261864568514773</v>
+      </c>
+      <c r="M49">
+        <v>0.03927623749850109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05409231268953654</v>
+        <v>-0.04292706076021632</v>
       </c>
       <c r="C50">
-        <v>0.03083214480052483</v>
+        <v>-0.04286114285813113</v>
       </c>
       <c r="D50">
-        <v>-0.007214382178203766</v>
+        <v>-0.01506010961411842</v>
       </c>
       <c r="E50">
-        <v>-0.01120151752135721</v>
+        <v>0.003642105157309984</v>
       </c>
       <c r="F50">
-        <v>-0.04433635698036994</v>
+        <v>-0.0403419290150609</v>
       </c>
       <c r="G50">
-        <v>-0.05218451680257605</v>
+        <v>-0.05260227677583613</v>
       </c>
       <c r="H50">
-        <v>0.01021016538841812</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03936734931649612</v>
+      </c>
+      <c r="I50">
+        <v>0.02923921648111222</v>
+      </c>
+      <c r="J50">
+        <v>-0.02195038969622305</v>
+      </c>
+      <c r="K50">
+        <v>0.0003724020966418214</v>
+      </c>
+      <c r="L50">
+        <v>-0.04616485140516313</v>
+      </c>
+      <c r="M50">
+        <v>-0.01979763889020934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02396968422690812</v>
+        <v>-0.03152382469360498</v>
       </c>
       <c r="C51">
-        <v>0.007509971334482237</v>
+        <v>-0.004603247727119372</v>
       </c>
       <c r="D51">
-        <v>0.002228259120163734</v>
+        <v>0.01724174135253081</v>
       </c>
       <c r="E51">
-        <v>-0.01633792161819627</v>
+        <v>0.01130319629009023</v>
       </c>
       <c r="F51">
-        <v>0.006187347793083345</v>
+        <v>0.02318411643606494</v>
       </c>
       <c r="G51">
-        <v>0.01956522996599942</v>
+        <v>0.01650097334581237</v>
       </c>
       <c r="H51">
-        <v>-0.03012228007032459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.021603127314703</v>
+      </c>
+      <c r="I51">
+        <v>-0.005240974042527657</v>
+      </c>
+      <c r="J51">
+        <v>0.07134369417856481</v>
+      </c>
+      <c r="K51">
+        <v>0.02394777998012543</v>
+      </c>
+      <c r="L51">
+        <v>0.06719197918908328</v>
+      </c>
+      <c r="M51">
+        <v>0.04981525286680643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2055,114 +2835,189 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1665573799506352</v>
+        <v>-0.1530652820309062</v>
       </c>
       <c r="C53">
-        <v>0.02505283128057708</v>
+        <v>-0.05156155469813305</v>
       </c>
       <c r="D53">
-        <v>-0.03575231997891665</v>
+        <v>0.03220851203481581</v>
       </c>
       <c r="E53">
-        <v>0.06247850003699597</v>
+        <v>-0.05218760302535697</v>
       </c>
       <c r="F53">
-        <v>0.08690096302096112</v>
+        <v>0.03524838125449468</v>
       </c>
       <c r="G53">
-        <v>-0.263444217543921</v>
+        <v>-0.2469729786446894</v>
       </c>
       <c r="H53">
-        <v>0.05564077109156901</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.0774804765232108</v>
+      </c>
+      <c r="I53">
+        <v>0.06879860756405122</v>
+      </c>
+      <c r="J53">
+        <v>-0.03610485041235979</v>
+      </c>
+      <c r="K53">
+        <v>0.0784488131361134</v>
+      </c>
+      <c r="L53">
+        <v>-0.06346092775196618</v>
+      </c>
+      <c r="M53">
+        <v>0.04352039391452691</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05068478277519782</v>
+        <v>-0.0555964686924064</v>
       </c>
       <c r="C54">
-        <v>0.03423281503725453</v>
+        <v>-0.03069883215698866</v>
       </c>
       <c r="D54">
-        <v>-0.03214849036664306</v>
+        <v>-0.004710762212424736</v>
       </c>
       <c r="E54">
-        <v>-0.03532803329508453</v>
+        <v>0.03454218935651904</v>
       </c>
       <c r="F54">
-        <v>-0.01841485658756419</v>
+        <v>-0.1034464189555226</v>
       </c>
       <c r="G54">
-        <v>-0.001927189934229609</v>
+        <v>-0.03250931935205419</v>
       </c>
       <c r="H54">
-        <v>0.02844440489022785</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.08173801128581359</v>
+      </c>
+      <c r="I54">
+        <v>-0.006191329176047093</v>
+      </c>
+      <c r="J54">
+        <v>-0.05411836071680251</v>
+      </c>
+      <c r="K54">
+        <v>-0.05389046445779341</v>
+      </c>
+      <c r="L54">
+        <v>-0.01316301727181581</v>
+      </c>
+      <c r="M54">
+        <v>-0.05613533984609458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09222000614966969</v>
+        <v>-0.08956960767540954</v>
       </c>
       <c r="C55">
-        <v>0.009040424991344961</v>
+        <v>-0.03959590427550352</v>
       </c>
       <c r="D55">
-        <v>-0.03012575394819757</v>
+        <v>0.0292240410024058</v>
       </c>
       <c r="E55">
-        <v>0.006694045695304227</v>
+        <v>-0.01368009847991846</v>
       </c>
       <c r="F55">
-        <v>0.03459351678447818</v>
+        <v>-0.01892434284567545</v>
       </c>
       <c r="G55">
-        <v>-0.2372787651334696</v>
+        <v>-0.1684596570341232</v>
       </c>
       <c r="H55">
-        <v>0.02986616755815498</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.01758573443973296</v>
+      </c>
+      <c r="I55">
+        <v>0.03916023334503784</v>
+      </c>
+      <c r="J55">
+        <v>-0.01831553350282564</v>
+      </c>
+      <c r="K55">
+        <v>0.06412625312592998</v>
+      </c>
+      <c r="L55">
+        <v>-0.01430363937422641</v>
+      </c>
+      <c r="M55">
+        <v>-0.0004574997468767453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1709682070229432</v>
+        <v>-0.145652155604967</v>
       </c>
       <c r="C56">
-        <v>0.02076433456700038</v>
+        <v>-0.06832674934122995</v>
       </c>
       <c r="D56">
-        <v>-0.06696425960013035</v>
+        <v>0.03472316304252985</v>
       </c>
       <c r="E56">
-        <v>0.05891545942661346</v>
+        <v>-0.02481008701817208</v>
       </c>
       <c r="F56">
-        <v>0.09828340557115331</v>
+        <v>0.02327871802156905</v>
       </c>
       <c r="G56">
-        <v>-0.2175582207435368</v>
+        <v>-0.2439725345181625</v>
       </c>
       <c r="H56">
-        <v>0.07002151441034894</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1164634357740635</v>
+      </c>
+      <c r="I56">
+        <v>0.04911177455660869</v>
+      </c>
+      <c r="J56">
+        <v>-0.03994186369162624</v>
+      </c>
+      <c r="K56">
+        <v>0.03605082292717303</v>
+      </c>
+      <c r="L56">
+        <v>-0.06808994421979248</v>
+      </c>
+      <c r="M56">
+        <v>-0.008731210932860762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.05108546202181635</v>
+        <v>-0.04240389363832701</v>
       </c>
       <c r="C58">
-        <v>0.0392303020727304</v>
+        <v>-0.03570462798394779</v>
       </c>
       <c r="D58">
-        <v>-0.04288150251422726</v>
+        <v>-0.03458983747221239</v>
       </c>
       <c r="E58">
-        <v>-0.2921444307637719</v>
+        <v>0.08643061788499716</v>
       </c>
       <c r="F58">
-        <v>-0.2222859617781369</v>
+        <v>0.01343862818887847</v>
       </c>
       <c r="G58">
-        <v>0.1232342800546031</v>
+        <v>0.08465661245415552</v>
       </c>
       <c r="H58">
-        <v>0.009976319921354799</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.2080168631445138</v>
+      </c>
+      <c r="I58">
+        <v>0.1242311572731258</v>
+      </c>
+      <c r="J58">
+        <v>0.3869218214201724</v>
+      </c>
+      <c r="K58">
+        <v>-0.4203426848312963</v>
+      </c>
+      <c r="L58">
+        <v>0.1174511145860514</v>
+      </c>
+      <c r="M58">
+        <v>-0.01334662909045072</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.246941131482285</v>
+        <v>-0.2267490077988873</v>
       </c>
       <c r="C59">
-        <v>-0.4095460969352621</v>
+        <v>0.3091356142691815</v>
       </c>
       <c r="D59">
-        <v>-0.05674825325735532</v>
+        <v>0.01725061353698668</v>
       </c>
       <c r="E59">
-        <v>-0.0479255958798873</v>
+        <v>0.001677816667231367</v>
       </c>
       <c r="F59">
-        <v>0.08228138300445142</v>
+        <v>-0.01807934177253308</v>
       </c>
       <c r="G59">
-        <v>-0.003260986186623641</v>
+        <v>-0.07172438601191428</v>
       </c>
       <c r="H59">
-        <v>0.005490240508613124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.08645200058653116</v>
+      </c>
+      <c r="I59">
+        <v>-0.0440242465813173</v>
+      </c>
+      <c r="J59">
+        <v>0.01373625823752716</v>
+      </c>
+      <c r="K59">
+        <v>0.01173986156755386</v>
+      </c>
+      <c r="L59">
+        <v>0.03645842934431071</v>
+      </c>
+      <c r="M59">
+        <v>0.01510411287424639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2440265706106921</v>
+        <v>-0.2416074339661725</v>
       </c>
       <c r="C60">
-        <v>0.08716406809920199</v>
+        <v>-0.1136393298937755</v>
       </c>
       <c r="D60">
-        <v>-0.09022013333197298</v>
+        <v>0.08385433388840308</v>
       </c>
       <c r="E60">
-        <v>0.008331091533005241</v>
+        <v>-0.0419512935740786</v>
       </c>
       <c r="F60">
-        <v>0.002515143864979043</v>
+        <v>0.08881357417440491</v>
       </c>
       <c r="G60">
-        <v>0.05295608956367644</v>
+        <v>0.0698625868682098</v>
       </c>
       <c r="H60">
-        <v>-0.09115401546386087</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1044964705738093</v>
+      </c>
+      <c r="I60">
+        <v>0.156604734782692</v>
+      </c>
+      <c r="J60">
+        <v>-0.01511230355009183</v>
+      </c>
+      <c r="K60">
+        <v>0.06746348517217113</v>
+      </c>
+      <c r="L60">
+        <v>0.05117654705352413</v>
+      </c>
+      <c r="M60">
+        <v>0.2093436766318718</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07697200280599184</v>
+        <v>-0.08577896253121543</v>
       </c>
       <c r="C61">
-        <v>0.05759907001241605</v>
+        <v>-0.05936533786163754</v>
       </c>
       <c r="D61">
-        <v>-0.01815614930533716</v>
+        <v>0.01417870423728902</v>
       </c>
       <c r="E61">
-        <v>-0.01117865269323042</v>
+        <v>0.02889170589842708</v>
       </c>
       <c r="F61">
-        <v>-0.01724914413734507</v>
+        <v>-0.08975799686959524</v>
       </c>
       <c r="G61">
-        <v>-0.01875755786483479</v>
+        <v>-0.05741273548411763</v>
       </c>
       <c r="H61">
-        <v>0.01195743264840439</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.05064279535161971</v>
+      </c>
+      <c r="I61">
+        <v>-0.05889361368640014</v>
+      </c>
+      <c r="J61">
+        <v>0.07385025617665851</v>
+      </c>
+      <c r="K61">
+        <v>-0.009436609165437367</v>
+      </c>
+      <c r="L61">
+        <v>-0.03067837097502456</v>
+      </c>
+      <c r="M61">
+        <v>0.01894592582874458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1639278825899162</v>
+        <v>-0.1474410156571581</v>
       </c>
       <c r="C62">
-        <v>0.04807964391061262</v>
+        <v>-0.07597922367877583</v>
       </c>
       <c r="D62">
-        <v>-0.02234955321612208</v>
+        <v>0.02171167604327165</v>
       </c>
       <c r="E62">
-        <v>0.1051756484535436</v>
+        <v>-0.06585294199148881</v>
       </c>
       <c r="F62">
-        <v>0.1110717788853195</v>
+        <v>-0.01828950725252633</v>
       </c>
       <c r="G62">
-        <v>-0.2443211007865591</v>
+        <v>-0.214656333855374</v>
       </c>
       <c r="H62">
-        <v>0.03925526937403383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.05494252376370416</v>
+      </c>
+      <c r="I62">
+        <v>0.05885695596639381</v>
+      </c>
+      <c r="J62">
+        <v>-0.09070296031907318</v>
+      </c>
+      <c r="K62">
+        <v>0.09450338101015136</v>
+      </c>
+      <c r="L62">
+        <v>-0.04972574221938644</v>
+      </c>
+      <c r="M62">
+        <v>-0.0851685667050429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04545449129681278</v>
+        <v>-0.04523583575800327</v>
       </c>
       <c r="C63">
-        <v>0.04774011874270442</v>
+        <v>-0.03049918579574783</v>
       </c>
       <c r="D63">
-        <v>-0.02172282279796912</v>
+        <v>-0.006225706784303666</v>
       </c>
       <c r="E63">
-        <v>-0.007695010749263392</v>
+        <v>0.003645852903142135</v>
       </c>
       <c r="F63">
-        <v>-0.01925722114627815</v>
+        <v>-0.06298569688568795</v>
       </c>
       <c r="G63">
-        <v>-0.04476427887249507</v>
+        <v>-0.01273007953049938</v>
       </c>
       <c r="H63">
-        <v>-0.01620277897374995</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.06781532456487685</v>
+      </c>
+      <c r="I63">
+        <v>0.02102553344772163</v>
+      </c>
+      <c r="J63">
+        <v>-0.001757909313369384</v>
+      </c>
+      <c r="K63">
+        <v>-0.008096328778302379</v>
+      </c>
+      <c r="L63">
+        <v>-0.008745753812028537</v>
+      </c>
+      <c r="M63">
+        <v>-0.03137074651965905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1004038405146715</v>
+        <v>-0.1017626243154731</v>
       </c>
       <c r="C64">
-        <v>0.03426825078693613</v>
+        <v>-0.04907969476065077</v>
       </c>
       <c r="D64">
-        <v>-0.03553575974032046</v>
+        <v>0.02352665642798081</v>
       </c>
       <c r="E64">
-        <v>-0.03767873619975096</v>
+        <v>0.03827766311468649</v>
       </c>
       <c r="F64">
-        <v>-0.04377667974950944</v>
+        <v>-0.05429073717847507</v>
       </c>
       <c r="G64">
-        <v>0.01039349232239199</v>
+        <v>0.01455182306494433</v>
       </c>
       <c r="H64">
-        <v>-0.01591190527786622</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.05470159014651638</v>
+      </c>
+      <c r="I64">
+        <v>0.001950305466638852</v>
+      </c>
+      <c r="J64">
+        <v>0.0420032536669404</v>
+      </c>
+      <c r="K64">
+        <v>0.03060457180727621</v>
+      </c>
+      <c r="L64">
+        <v>-0.08222444827866086</v>
+      </c>
+      <c r="M64">
+        <v>0.01229508806211878</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1284523983473808</v>
+        <v>-0.1250314246847434</v>
       </c>
       <c r="C65">
-        <v>0.06213732185220061</v>
+        <v>-0.03916988206229837</v>
       </c>
       <c r="D65">
-        <v>-0.05706668669383935</v>
+        <v>0.01597709040663694</v>
       </c>
       <c r="E65">
-        <v>-0.07139031009947935</v>
+        <v>-0.01530656129849855</v>
       </c>
       <c r="F65">
-        <v>-0.1935665752535039</v>
+        <v>-0.06967695926884357</v>
       </c>
       <c r="G65">
-        <v>0.0381544996678364</v>
+        <v>0.1712263346880467</v>
       </c>
       <c r="H65">
-        <v>-0.2440496812058298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.1419633268849047</v>
+      </c>
+      <c r="I65">
+        <v>0.594536850074978</v>
+      </c>
+      <c r="J65">
+        <v>-0.3069515927934831</v>
+      </c>
+      <c r="K65">
+        <v>-0.08168650548669429</v>
+      </c>
+      <c r="L65">
+        <v>0.1233439052955118</v>
+      </c>
+      <c r="M65">
+        <v>-0.01348806052621489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1532246605495776</v>
+        <v>-0.1247557608658938</v>
       </c>
       <c r="C66">
-        <v>0.1482115653353464</v>
+        <v>-0.1225259479017374</v>
       </c>
       <c r="D66">
-        <v>-0.05427113503663864</v>
+        <v>0.002490479714825884</v>
       </c>
       <c r="E66">
-        <v>-0.008073823340346143</v>
+        <v>0.02332281364914253</v>
       </c>
       <c r="F66">
-        <v>0.04690984722563156</v>
+        <v>-0.09885422514057725</v>
       </c>
       <c r="G66">
-        <v>-0.008516817983979226</v>
+        <v>-0.03577178374899775</v>
       </c>
       <c r="H66">
-        <v>-0.03309106762119806</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.06685507236282044</v>
+      </c>
+      <c r="I66">
+        <v>-0.1419507164866658</v>
+      </c>
+      <c r="J66">
+        <v>0.1697620852441818</v>
+      </c>
+      <c r="K66">
+        <v>0.006234683238223805</v>
+      </c>
+      <c r="L66">
+        <v>-0.1315122961151629</v>
+      </c>
+      <c r="M66">
+        <v>0.1084199328241141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07217210688581102</v>
+        <v>-0.08497037607611954</v>
       </c>
       <c r="C67">
-        <v>0.04484577110695242</v>
+        <v>-0.06768965201193566</v>
       </c>
       <c r="D67">
-        <v>-0.005127282907741374</v>
+        <v>0.01741297149151642</v>
       </c>
       <c r="E67">
-        <v>-0.01700556334740984</v>
+        <v>0.03398873581520032</v>
       </c>
       <c r="F67">
-        <v>0.008133911052810333</v>
+        <v>0.03607399073199002</v>
       </c>
       <c r="G67">
-        <v>0.02640411149845521</v>
+        <v>-0.02741947849746159</v>
       </c>
       <c r="H67">
-        <v>0.03212068014881549</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.1165862127611746</v>
+      </c>
+      <c r="I67">
+        <v>-0.04269914908801276</v>
+      </c>
+      <c r="J67">
+        <v>-0.07065908877842111</v>
+      </c>
+      <c r="K67">
+        <v>0.07046594971095248</v>
+      </c>
+      <c r="L67">
+        <v>-0.01216865754645861</v>
+      </c>
+      <c r="M67">
+        <v>-0.03439258661123583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1050877004310422</v>
+        <v>-0.121813624559502</v>
       </c>
       <c r="C68">
-        <v>-0.2597047231562309</v>
+        <v>0.2717613381955084</v>
       </c>
       <c r="D68">
-        <v>-0.01218622267993165</v>
+        <v>-0.01219036442163651</v>
       </c>
       <c r="E68">
-        <v>-0.01673071311635898</v>
+        <v>0.0243933346933484</v>
       </c>
       <c r="F68">
-        <v>-0.008846619433196165</v>
+        <v>0.001333903994570193</v>
       </c>
       <c r="G68">
-        <v>-0.02774969697088939</v>
+        <v>-0.02905911207947736</v>
       </c>
       <c r="H68">
-        <v>0.03125004731057228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.0243008118804993</v>
+      </c>
+      <c r="I68">
+        <v>0.05420091504761931</v>
+      </c>
+      <c r="J68">
+        <v>-0.02873136439878095</v>
+      </c>
+      <c r="K68">
+        <v>-0.02536770440747441</v>
+      </c>
+      <c r="L68">
+        <v>-0.03346158775356259</v>
+      </c>
+      <c r="M68">
+        <v>-0.03394732499811465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04566742883143997</v>
+        <v>-0.04539411862421341</v>
       </c>
       <c r="C69">
-        <v>0.02437755768746063</v>
+        <v>-0.02375322718171408</v>
       </c>
       <c r="D69">
-        <v>-0.01004793530116785</v>
+        <v>-0.009205683163746283</v>
       </c>
       <c r="E69">
-        <v>-0.02648370515762706</v>
+        <v>0.002257262496947526</v>
       </c>
       <c r="F69">
-        <v>0.04240790616329011</v>
+        <v>-0.023948316578034</v>
       </c>
       <c r="G69">
-        <v>-0.02735450499412247</v>
+        <v>-0.03893947936512743</v>
       </c>
       <c r="H69">
-        <v>-0.004863808500374633</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.0222597896561391</v>
+      </c>
+      <c r="I69">
+        <v>0.004574705513534176</v>
+      </c>
+      <c r="J69">
+        <v>0.01706377332838614</v>
+      </c>
+      <c r="K69">
+        <v>-0.02364881617690843</v>
+      </c>
+      <c r="L69">
+        <v>0.04919338598089656</v>
+      </c>
+      <c r="M69">
+        <v>-0.0588254651413152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.03241945610797654</v>
+        <v>-0.05407876009564295</v>
       </c>
       <c r="C70">
-        <v>0.008596780199563373</v>
+        <v>-0.03389554786632153</v>
       </c>
       <c r="D70">
-        <v>0.0108094295880444</v>
+        <v>0.0343500119940554</v>
       </c>
       <c r="E70">
-        <v>-0.0105415093865954</v>
+        <v>-0.03646864524323636</v>
       </c>
       <c r="F70">
-        <v>-0.0219783748006373</v>
+        <v>-0.02503761372970406</v>
       </c>
       <c r="G70">
-        <v>0.09799008405452432</v>
+        <v>0.03172358198203688</v>
       </c>
       <c r="H70">
-        <v>0.04186982760769625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.06372307233025973</v>
+      </c>
+      <c r="I70">
+        <v>-0.1270360512604207</v>
+      </c>
+      <c r="J70">
+        <v>-0.1312599613934234</v>
+      </c>
+      <c r="K70">
+        <v>-0.1698597993100002</v>
+      </c>
+      <c r="L70">
+        <v>0.0256926275886306</v>
+      </c>
+      <c r="M70">
+        <v>-0.09456238513530124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1071414327910572</v>
+        <v>-0.1355138933123034</v>
       </c>
       <c r="C71">
-        <v>-0.2790284730943862</v>
+        <v>0.2815681340570982</v>
       </c>
       <c r="D71">
-        <v>-0.04336500493364048</v>
+        <v>0.007753826483862439</v>
       </c>
       <c r="E71">
-        <v>-0.006264368195014985</v>
+        <v>0.03477209301779416</v>
       </c>
       <c r="F71">
-        <v>-0.01040326875011861</v>
+        <v>-0.004544391461024961</v>
       </c>
       <c r="G71">
-        <v>0.01019145826293293</v>
+        <v>-0.01689179349695087</v>
       </c>
       <c r="H71">
-        <v>0.01992197199219295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02367882660219154</v>
+      </c>
+      <c r="I71">
+        <v>0.01727373397896581</v>
+      </c>
+      <c r="J71">
+        <v>-0.00368864680804932</v>
+      </c>
+      <c r="K71">
+        <v>0.003077117422395323</v>
+      </c>
+      <c r="L71">
+        <v>-0.009789353761260873</v>
+      </c>
+      <c r="M71">
+        <v>-0.01758592486590163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1862064521393555</v>
+        <v>-0.1447722493577446</v>
       </c>
       <c r="C72">
-        <v>0.0274665476171596</v>
+        <v>-0.03500949932413668</v>
       </c>
       <c r="D72">
-        <v>0.2121313201593188</v>
+        <v>-0.1358429142488281</v>
       </c>
       <c r="E72">
-        <v>0.02002768262709593</v>
+        <v>-0.1205618151539379</v>
       </c>
       <c r="F72">
-        <v>0.006716043644311461</v>
+        <v>-0.08877158973589334</v>
       </c>
       <c r="G72">
-        <v>-0.005462304629202276</v>
+        <v>-0.01697982131522947</v>
       </c>
       <c r="H72">
-        <v>-0.1198177757907671</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.03490711718855587</v>
+      </c>
+      <c r="I72">
+        <v>0.1513085176931745</v>
+      </c>
+      <c r="J72">
+        <v>-0.04206507690635224</v>
+      </c>
+      <c r="K72">
+        <v>0.06643160864712219</v>
+      </c>
+      <c r="L72">
+        <v>0.04547912400141049</v>
+      </c>
+      <c r="M72">
+        <v>-0.001685664788224849</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2680425964201353</v>
+        <v>-0.234155135205295</v>
       </c>
       <c r="C73">
-        <v>0.1797843970470784</v>
+        <v>-0.1512782618303642</v>
       </c>
       <c r="D73">
-        <v>-0.1625690788819302</v>
+        <v>0.206461692153322</v>
       </c>
       <c r="E73">
-        <v>0.08341773982720654</v>
+        <v>-0.123869737685758</v>
       </c>
       <c r="F73">
-        <v>-0.1331761478615693</v>
+        <v>0.3663663114958876</v>
       </c>
       <c r="G73">
-        <v>0.1142369006986143</v>
+        <v>0.270138431768634</v>
       </c>
       <c r="H73">
-        <v>-0.1626769116391977</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.08052787724049822</v>
+      </c>
+      <c r="I73">
+        <v>0.1371161962562754</v>
+      </c>
+      <c r="J73">
+        <v>0.4392387517221385</v>
+      </c>
+      <c r="K73">
+        <v>0.2328236613264822</v>
+      </c>
+      <c r="L73">
+        <v>0.04302147633223061</v>
+      </c>
+      <c r="M73">
+        <v>-0.05566214760302273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09072627366793314</v>
+        <v>-0.08866396620354201</v>
       </c>
       <c r="C74">
-        <v>0.02459369896962233</v>
+        <v>-0.06515674953461609</v>
       </c>
       <c r="D74">
-        <v>-0.01996821143459549</v>
+        <v>0.01217157495882738</v>
       </c>
       <c r="E74">
-        <v>0.02265012819545096</v>
+        <v>-0.02012008033650853</v>
       </c>
       <c r="F74">
-        <v>-0.02299072660954803</v>
+        <v>0.02279538034044132</v>
       </c>
       <c r="G74">
-        <v>-0.1649871321184177</v>
+        <v>-0.147616736677247</v>
       </c>
       <c r="H74">
-        <v>0.01781048129860602</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.01045918059875046</v>
+      </c>
+      <c r="I74">
+        <v>0.04104156720029941</v>
+      </c>
+      <c r="J74">
+        <v>0.03739583579755776</v>
+      </c>
+      <c r="K74">
+        <v>0.0555548091386328</v>
+      </c>
+      <c r="L74">
+        <v>-0.01204103400829069</v>
+      </c>
+      <c r="M74">
+        <v>-0.06009499457899064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1019262042450196</v>
+        <v>-0.09138980777345818</v>
       </c>
       <c r="C75">
-        <v>0.02268011031585812</v>
+        <v>-0.05017650340260083</v>
       </c>
       <c r="D75">
-        <v>-0.02265683280324719</v>
+        <v>0.00233486557917114</v>
       </c>
       <c r="E75">
-        <v>0.01521317055298958</v>
+        <v>-0.01762061142892239</v>
       </c>
       <c r="F75">
-        <v>0.08417734672153017</v>
+        <v>0.01414411230116558</v>
       </c>
       <c r="G75">
-        <v>-0.09570215737744328</v>
+        <v>-0.1221373823257424</v>
       </c>
       <c r="H75">
-        <v>0.05375191477462089</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.07077663823006344</v>
+      </c>
+      <c r="I75">
+        <v>0.002515137797541056</v>
+      </c>
+      <c r="J75">
+        <v>-0.02362441985332673</v>
+      </c>
+      <c r="K75">
+        <v>-0.03509547178211565</v>
+      </c>
+      <c r="L75">
+        <v>0.06396728317273273</v>
+      </c>
+      <c r="M75">
+        <v>-0.02299562315050164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1321783511664795</v>
+        <v>-0.1035967848259267</v>
       </c>
       <c r="C76">
-        <v>0.03652023432517089</v>
+        <v>-0.07183559804636777</v>
       </c>
       <c r="D76">
-        <v>-0.02600760094726771</v>
+        <v>0.02955465916686013</v>
       </c>
       <c r="E76">
-        <v>0.01546689185631336</v>
+        <v>-0.0224150480823249</v>
       </c>
       <c r="F76">
-        <v>0.07057514455365248</v>
+        <v>0.03390888687709716</v>
       </c>
       <c r="G76">
-        <v>-0.2379900305332155</v>
+        <v>-0.2247292899702902</v>
       </c>
       <c r="H76">
-        <v>0.03438798932724411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.06733556605696674</v>
+      </c>
+      <c r="I76">
+        <v>0.05408536961071479</v>
+      </c>
+      <c r="J76">
+        <v>-0.01258801791270426</v>
+      </c>
+      <c r="K76">
+        <v>0.07995788860542767</v>
+      </c>
+      <c r="L76">
+        <v>-0.09011157734406815</v>
+      </c>
+      <c r="M76">
+        <v>0.003110239058639133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.0818394444299118</v>
+        <v>-0.07280512668364776</v>
       </c>
       <c r="C77">
-        <v>0.05611626877045078</v>
+        <v>-0.02043166444753696</v>
       </c>
       <c r="D77">
-        <v>0.05603285305991091</v>
+        <v>-0.02718614120275738</v>
       </c>
       <c r="E77">
-        <v>-0.4127415792070962</v>
+        <v>0.141739025259308</v>
       </c>
       <c r="F77">
-        <v>0.5036952135539992</v>
+        <v>-0.5526780581111892</v>
       </c>
       <c r="G77">
-        <v>0.1525914897892083</v>
+        <v>0.3403384978013684</v>
       </c>
       <c r="H77">
-        <v>-0.5055757494763327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.5867709721568032</v>
+      </c>
+      <c r="I77">
+        <v>0.04287601904727048</v>
+      </c>
+      <c r="J77">
+        <v>0.09314111813161723</v>
+      </c>
+      <c r="K77">
+        <v>0.1678889892774234</v>
+      </c>
+      <c r="L77">
+        <v>-0.1021925069643635</v>
+      </c>
+      <c r="M77">
+        <v>-0.01253686867006622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1219655819123925</v>
+        <v>-0.1628649930847403</v>
       </c>
       <c r="C78">
-        <v>0.09737790834289414</v>
+        <v>-0.1138355777392929</v>
       </c>
       <c r="D78">
-        <v>-0.02145118624729942</v>
+        <v>-0.03311299261482493</v>
       </c>
       <c r="E78">
-        <v>-0.0987596719968712</v>
+        <v>0.1904109517529757</v>
       </c>
       <c r="F78">
-        <v>-0.1010832604537216</v>
+        <v>-0.03530779320989244</v>
       </c>
       <c r="G78">
-        <v>0.03153794264493051</v>
+        <v>0.07862552270653619</v>
       </c>
       <c r="H78">
-        <v>0.04605604895221246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.1756154430359891</v>
+      </c>
+      <c r="I78">
+        <v>-0.1653099729788154</v>
+      </c>
+      <c r="J78">
+        <v>-0.1561728975217844</v>
+      </c>
+      <c r="K78">
+        <v>0.1910297847316925</v>
+      </c>
+      <c r="L78">
+        <v>0.2782613912355604</v>
+      </c>
+      <c r="M78">
+        <v>0.5894717159836561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1473167837949341</v>
+        <v>-0.1372434303886108</v>
       </c>
       <c r="C79">
-        <v>0.05416237871913465</v>
+        <v>-0.07686544620575084</v>
       </c>
       <c r="D79">
-        <v>-0.0334745901508366</v>
+        <v>0.01080383626342627</v>
       </c>
       <c r="E79">
-        <v>0.0297568048795811</v>
+        <v>-0.003892014942445574</v>
       </c>
       <c r="F79">
-        <v>0.09213003987455433</v>
+        <v>-0.0108606297139113</v>
       </c>
       <c r="G79">
-        <v>-0.1502477452573514</v>
+        <v>-0.1749705080932892</v>
       </c>
       <c r="H79">
-        <v>0.069294501923878</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.0694473019845029</v>
+      </c>
+      <c r="I79">
+        <v>0.04613063418910925</v>
+      </c>
+      <c r="J79">
+        <v>-0.04845949551857375</v>
+      </c>
+      <c r="K79">
+        <v>0.01848186663351113</v>
+      </c>
+      <c r="L79">
+        <v>-0.004776460445369092</v>
+      </c>
+      <c r="M79">
+        <v>-0.07717417061415395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.01587799424560453</v>
+        <v>-0.03801231173973744</v>
       </c>
       <c r="C80">
-        <v>-0.009932153338108802</v>
+        <v>-0.01531494859955049</v>
       </c>
       <c r="D80">
-        <v>0.007065223269886329</v>
+        <v>0.05234815275887812</v>
       </c>
       <c r="E80">
-        <v>0.004628080023596773</v>
+        <v>-0.06267955910824285</v>
       </c>
       <c r="F80">
-        <v>-0.04155969334960709</v>
+        <v>-0.05045353307597689</v>
       </c>
       <c r="G80">
-        <v>-0.01189078292464029</v>
+        <v>-0.006008676033486823</v>
       </c>
       <c r="H80">
-        <v>-0.04878094844837044</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.1092729932567951</v>
+      </c>
+      <c r="I80">
+        <v>-0.03046419654685335</v>
+      </c>
+      <c r="J80">
+        <v>0.02524911078634942</v>
+      </c>
+      <c r="K80">
+        <v>0.003403053011598933</v>
+      </c>
+      <c r="L80">
+        <v>0.07481965838133235</v>
+      </c>
+      <c r="M80">
+        <v>-0.003433917880097879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1175596271196682</v>
+        <v>-0.1206307621676589</v>
       </c>
       <c r="C81">
-        <v>0.04334952265099926</v>
+        <v>-0.05271044632200959</v>
       </c>
       <c r="D81">
-        <v>-0.04128679307824153</v>
+        <v>0.01150979561424299</v>
       </c>
       <c r="E81">
-        <v>0.0252081709420115</v>
+        <v>-0.001861778454394103</v>
       </c>
       <c r="F81">
-        <v>0.04574602899176116</v>
+        <v>-0.01497993793763366</v>
       </c>
       <c r="G81">
-        <v>-0.09775825006825027</v>
+        <v>-0.1701216277643938</v>
       </c>
       <c r="H81">
-        <v>0.01556194516299711</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.03365249345941294</v>
+      </c>
+      <c r="I81">
+        <v>-0.0002529321853805847</v>
+      </c>
+      <c r="J81">
+        <v>0.03239702654501912</v>
+      </c>
+      <c r="K81">
+        <v>-0.02025374833454122</v>
+      </c>
+      <c r="L81">
+        <v>0.01418564508393701</v>
+      </c>
+      <c r="M81">
+        <v>-0.01259514425644883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1129938167741942</v>
+        <v>-0.1170957911774982</v>
       </c>
       <c r="C82">
-        <v>0.05045989957992515</v>
+        <v>-0.05846652248307829</v>
       </c>
       <c r="D82">
-        <v>-0.06297419754124804</v>
+        <v>0.02148215494686775</v>
       </c>
       <c r="E82">
-        <v>0.05965238921746232</v>
+        <v>-0.02640852793955367</v>
       </c>
       <c r="F82">
-        <v>0.1429310990438727</v>
+        <v>0.02216589681153681</v>
       </c>
       <c r="G82">
-        <v>-0.2448231939519776</v>
+        <v>-0.2577642335023113</v>
       </c>
       <c r="H82">
-        <v>0.09242144191381307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.07974540096587285</v>
+      </c>
+      <c r="I82">
+        <v>-0.04348015478878783</v>
+      </c>
+      <c r="J82">
+        <v>-0.01220635019694679</v>
+      </c>
+      <c r="K82">
+        <v>0.0145708064590144</v>
+      </c>
+      <c r="L82">
+        <v>-0.04095791353528617</v>
+      </c>
+      <c r="M82">
+        <v>-0.1495344562538677</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.04867814160591913</v>
+        <v>-0.07443035784790016</v>
       </c>
       <c r="C83">
-        <v>0.0305143459313685</v>
+        <v>-0.05741221991294003</v>
       </c>
       <c r="D83">
-        <v>-0.03725707750021007</v>
+        <v>0.03422477136464833</v>
       </c>
       <c r="E83">
-        <v>0.01889336858316629</v>
+        <v>0.002525732704482159</v>
       </c>
       <c r="F83">
-        <v>-0.0009203444085695847</v>
+        <v>-0.01391103507672237</v>
       </c>
       <c r="G83">
-        <v>0.1134552747681235</v>
+        <v>0.03170630337856664</v>
       </c>
       <c r="H83">
-        <v>0.0274685214810147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.01114299942532864</v>
+      </c>
+      <c r="I83">
+        <v>-0.08278909329607424</v>
+      </c>
+      <c r="J83">
+        <v>-0.0443456529176675</v>
+      </c>
+      <c r="K83">
+        <v>-0.09256249833230404</v>
+      </c>
+      <c r="L83">
+        <v>0.03922772237408075</v>
+      </c>
+      <c r="M83">
+        <v>-0.03162180678820541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05338539156470123</v>
+        <v>-0.04073342897051788</v>
       </c>
       <c r="C84">
-        <v>0.02447191598520828</v>
+        <v>0.02255670091102922</v>
       </c>
       <c r="D84">
-        <v>0.01017923568583735</v>
+        <v>-0.03585954164049866</v>
       </c>
       <c r="E84">
-        <v>0.03133733765291429</v>
+        <v>0.003874232513413832</v>
       </c>
       <c r="F84">
-        <v>-0.1020616378963141</v>
+        <v>0.01829083283800409</v>
       </c>
       <c r="G84">
-        <v>-0.02633645424127941</v>
+        <v>0.1481145679472577</v>
       </c>
       <c r="H84">
-        <v>0.07598661899604707</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.2504714689595024</v>
+      </c>
+      <c r="I84">
+        <v>-0.2413138663114249</v>
+      </c>
+      <c r="J84">
+        <v>-0.1747612501528311</v>
+      </c>
+      <c r="K84">
+        <v>0.3798976782789038</v>
+      </c>
+      <c r="L84">
+        <v>-0.08770730276566457</v>
+      </c>
+      <c r="M84">
+        <v>-0.2361064663639506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07753658264968351</v>
+        <v>-0.107014132141196</v>
       </c>
       <c r="C85">
-        <v>0.04176178908517694</v>
+        <v>-0.0525266968029628</v>
       </c>
       <c r="D85">
-        <v>-0.06253847407855989</v>
+        <v>0.04478538183632676</v>
       </c>
       <c r="E85">
-        <v>0.01472842421219739</v>
+        <v>0.01051681118032291</v>
       </c>
       <c r="F85">
-        <v>0.05171579369815746</v>
+        <v>-0.00359715392756269</v>
       </c>
       <c r="G85">
-        <v>-0.1734036869323139</v>
+        <v>-0.182156749716835</v>
       </c>
       <c r="H85">
-        <v>0.01637506250068528</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.05115438846534082</v>
+      </c>
+      <c r="I85">
+        <v>0.04467506203663939</v>
+      </c>
+      <c r="J85">
+        <v>-0.03962377317568131</v>
+      </c>
+      <c r="K85">
+        <v>0.04282107888810262</v>
+      </c>
+      <c r="L85">
+        <v>0.01933814184390706</v>
+      </c>
+      <c r="M85">
+        <v>-0.03612926693358438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.0366892454497877</v>
+        <v>-0.07302475379420528</v>
       </c>
       <c r="C86">
-        <v>0.04657263131113042</v>
+        <v>-0.02442756025450062</v>
       </c>
       <c r="D86">
-        <v>0.01398485551965858</v>
+        <v>-0.009379196367555222</v>
       </c>
       <c r="E86">
-        <v>-0.0477818122859009</v>
+        <v>0.06172098337366255</v>
       </c>
       <c r="F86">
-        <v>-0.02916386982212879</v>
+        <v>-0.02726792723183867</v>
       </c>
       <c r="G86">
-        <v>0.04058949656118857</v>
+        <v>0.08415769319753587</v>
       </c>
       <c r="H86">
-        <v>-0.09895390302266452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.1479880973911686</v>
+      </c>
+      <c r="I86">
+        <v>-0.2492737377578206</v>
+      </c>
+      <c r="J86">
+        <v>-0.2347001282933445</v>
+      </c>
+      <c r="K86">
+        <v>0.2606322699506642</v>
+      </c>
+      <c r="L86">
+        <v>0.2461683570544673</v>
+      </c>
+      <c r="M86">
+        <v>-0.0456166175510146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09971281303120666</v>
+        <v>-0.1163131873806698</v>
       </c>
       <c r="C87">
-        <v>0.06612183632056812</v>
+        <v>-0.06585362014684726</v>
       </c>
       <c r="D87">
-        <v>0.007465391414772876</v>
+        <v>-0.02683918085847702</v>
       </c>
       <c r="E87">
-        <v>-0.1730025537571767</v>
+        <v>0.07190339712859921</v>
       </c>
       <c r="F87">
-        <v>0.08155581502302996</v>
+        <v>-0.175347782494136</v>
       </c>
       <c r="G87">
-        <v>0.0390436555578126</v>
+        <v>0.1464650250378317</v>
       </c>
       <c r="H87">
-        <v>-0.1309306238466291</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.07324464415914007</v>
+      </c>
+      <c r="I87">
+        <v>-0.02138250483083402</v>
+      </c>
+      <c r="J87">
+        <v>0.01974533894091448</v>
+      </c>
+      <c r="K87">
+        <v>0.03806226072379479</v>
+      </c>
+      <c r="L87">
+        <v>-0.06623422953086061</v>
+      </c>
+      <c r="M87">
+        <v>-0.1235027598694172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04690528412184437</v>
+        <v>-0.05892161042165457</v>
       </c>
       <c r="C88">
-        <v>0.03734698265478135</v>
+        <v>-0.05318670483046006</v>
       </c>
       <c r="D88">
-        <v>-0.01662778404169674</v>
+        <v>0.02871848108290968</v>
       </c>
       <c r="E88">
-        <v>-0.005307548335980153</v>
+        <v>-0.004928024108532369</v>
       </c>
       <c r="F88">
-        <v>-0.008924758242007988</v>
+        <v>-0.03500976382791425</v>
       </c>
       <c r="G88">
-        <v>0.02196021868326347</v>
+        <v>-0.02156315263357127</v>
       </c>
       <c r="H88">
-        <v>0.000739837855641228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.03895533789412299</v>
+      </c>
+      <c r="I88">
+        <v>-0.02609787884087667</v>
+      </c>
+      <c r="J88">
+        <v>0.0328909863959935</v>
+      </c>
+      <c r="K88">
+        <v>-0.01189540082380638</v>
+      </c>
+      <c r="L88">
+        <v>0.009218724523377277</v>
+      </c>
+      <c r="M88">
+        <v>0.02064409545471512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1703159592070822</v>
+        <v>-0.2220054518919878</v>
       </c>
       <c r="C89">
-        <v>-0.3127933054220132</v>
+        <v>0.3510824042772958</v>
       </c>
       <c r="D89">
-        <v>-0.08195597685550061</v>
+        <v>0.04057664060792029</v>
       </c>
       <c r="E89">
-        <v>-0.09287837173568921</v>
+        <v>0.08507431581774334</v>
       </c>
       <c r="F89">
-        <v>-0.01520810928756531</v>
+        <v>-0.0001343200481870032</v>
       </c>
       <c r="G89">
-        <v>0.04122244506070017</v>
+        <v>-0.001373739397874962</v>
       </c>
       <c r="H89">
-        <v>0.03035972433274289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.03048831792789821</v>
+      </c>
+      <c r="I89">
+        <v>-0.05766663316456526</v>
+      </c>
+      <c r="J89">
+        <v>0.09129361484520944</v>
+      </c>
+      <c r="K89">
+        <v>-0.0783795468904953</v>
+      </c>
+      <c r="L89">
+        <v>0.04777220526832854</v>
+      </c>
+      <c r="M89">
+        <v>0.02213755157430864</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1278538725217236</v>
+        <v>-0.1493306963787267</v>
       </c>
       <c r="C90">
-        <v>-0.27189935962144</v>
+        <v>0.2660418697077809</v>
       </c>
       <c r="D90">
-        <v>-0.01754004696755843</v>
+        <v>0.00934060349450563</v>
       </c>
       <c r="E90">
-        <v>-0.07059417144278085</v>
+        <v>0.02482624191146899</v>
       </c>
       <c r="F90">
-        <v>-0.01407749613539676</v>
+        <v>-0.02157039642775399</v>
       </c>
       <c r="G90">
-        <v>0.02975350933673696</v>
+        <v>0.02628566564052505</v>
       </c>
       <c r="H90">
-        <v>-0.0358083579694826</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.02002663317680467</v>
+      </c>
+      <c r="I90">
+        <v>0.01209140035483047</v>
+      </c>
+      <c r="J90">
+        <v>0.04573650118161357</v>
+      </c>
+      <c r="K90">
+        <v>0.01803638361199743</v>
+      </c>
+      <c r="L90">
+        <v>-0.03548276857223946</v>
+      </c>
+      <c r="M90">
+        <v>0.0319869032301344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08514870214215496</v>
+        <v>-0.07539229337517005</v>
       </c>
       <c r="C91">
-        <v>0.03396343376366304</v>
+        <v>-0.05357993737254655</v>
       </c>
       <c r="D91">
-        <v>-0.01932511611000227</v>
+        <v>0.006395792917693054</v>
       </c>
       <c r="E91">
-        <v>-0.0007386067064304418</v>
+        <v>-0.002745102372333789</v>
       </c>
       <c r="F91">
-        <v>0.0337649983424478</v>
+        <v>0.01354184656278853</v>
       </c>
       <c r="G91">
-        <v>-0.1072886794188724</v>
+        <v>-0.09547905018904272</v>
       </c>
       <c r="H91">
-        <v>0.03583377074220138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.04320990637486692</v>
+      </c>
+      <c r="I91">
+        <v>0.01664354004637349</v>
+      </c>
+      <c r="J91">
+        <v>0.01743500501385834</v>
+      </c>
+      <c r="K91">
+        <v>-0.00622937305583776</v>
+      </c>
+      <c r="L91">
+        <v>0.01909053109383281</v>
+      </c>
+      <c r="M91">
+        <v>0.001663081361631762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1477530206139107</v>
+        <v>-0.1690662995056853</v>
       </c>
       <c r="C92">
-        <v>-0.3097249462292879</v>
+        <v>0.3035328097149513</v>
       </c>
       <c r="D92">
-        <v>-0.05978426201458212</v>
+        <v>0.01211271615843157</v>
       </c>
       <c r="E92">
-        <v>-0.01739141201446731</v>
+        <v>0.05254683244538778</v>
       </c>
       <c r="F92">
-        <v>-0.06282690794472243</v>
+        <v>0.01858572096033045</v>
       </c>
       <c r="G92">
-        <v>0.004317938300061211</v>
+        <v>-0.03405298838534911</v>
       </c>
       <c r="H92">
-        <v>0.05963950001724826</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03176070933381771</v>
+      </c>
+      <c r="I92">
+        <v>-0.01102152246900768</v>
+      </c>
+      <c r="J92">
+        <v>0.03586261366347891</v>
+      </c>
+      <c r="K92">
+        <v>-0.008437414446697279</v>
+      </c>
+      <c r="L92">
+        <v>0.0001024917453035028</v>
+      </c>
+      <c r="M92">
+        <v>-0.008503008695925981</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1385835638413691</v>
+        <v>-0.1640566824560476</v>
       </c>
       <c r="C93">
-        <v>-0.2493731346696787</v>
+        <v>0.2881846770928299</v>
       </c>
       <c r="D93">
-        <v>-0.03230548982713053</v>
+        <v>0.007056179759244313</v>
       </c>
       <c r="E93">
-        <v>-0.027083939068708</v>
+        <v>0.00968619112005459</v>
       </c>
       <c r="F93">
-        <v>-0.01805342940663073</v>
+        <v>0.003107245289132627</v>
       </c>
       <c r="G93">
-        <v>0.05633101256675017</v>
+        <v>0.01031679158230497</v>
       </c>
       <c r="H93">
-        <v>0.002442791116368702</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01606305912362447</v>
+      </c>
+      <c r="I93">
+        <v>-0.01296922128034561</v>
+      </c>
+      <c r="J93">
+        <v>-0.02426937701356432</v>
+      </c>
+      <c r="K93">
+        <v>-0.005389629101759804</v>
+      </c>
+      <c r="L93">
+        <v>-0.02060228402439557</v>
+      </c>
+      <c r="M93">
+        <v>-0.006501532508175848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08803451365020414</v>
+        <v>-0.1054870558608837</v>
       </c>
       <c r="C94">
-        <v>0.06355837203333621</v>
+        <v>-0.07704213613428711</v>
       </c>
       <c r="D94">
-        <v>-0.0228389158113628</v>
+        <v>0.01821743446852466</v>
       </c>
       <c r="E94">
-        <v>-0.009217016044257753</v>
+        <v>0.01472102335151103</v>
       </c>
       <c r="F94">
-        <v>0.05497447106742068</v>
+        <v>0.04792384442152938</v>
       </c>
       <c r="G94">
-        <v>-0.1338595643178984</v>
+        <v>-0.1288248546662033</v>
       </c>
       <c r="H94">
-        <v>0.0829582536692008</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.03392292219768041</v>
+      </c>
+      <c r="I94">
+        <v>0.01571350490711565</v>
+      </c>
+      <c r="J94">
+        <v>-0.006306454951129609</v>
+      </c>
+      <c r="K94">
+        <v>-0.03762394849003016</v>
+      </c>
+      <c r="L94">
+        <v>0.05449509204598886</v>
+      </c>
+      <c r="M94">
+        <v>-0.03447266469727499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09845944697180067</v>
+        <v>-0.1361357119155455</v>
       </c>
       <c r="C95">
-        <v>0.1057910558535415</v>
+        <v>-0.07871650940002123</v>
       </c>
       <c r="D95">
-        <v>-0.09075179353021839</v>
+        <v>0.03507109781876121</v>
       </c>
       <c r="E95">
-        <v>-0.02409538038083591</v>
+        <v>0.06483384303856959</v>
       </c>
       <c r="F95">
-        <v>-0.05851220590374681</v>
+        <v>-0.03795819446529582</v>
       </c>
       <c r="G95">
-        <v>0.01386796182704557</v>
+        <v>0.1555469163811201</v>
       </c>
       <c r="H95">
-        <v>-0.0613629002067158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1512701863379327</v>
+      </c>
+      <c r="I95">
+        <v>-0.02427284634124521</v>
+      </c>
+      <c r="J95">
+        <v>0.02795176049342852</v>
+      </c>
+      <c r="K95">
+        <v>-0.02569752206311996</v>
+      </c>
+      <c r="L95">
+        <v>0.1774318222039367</v>
+      </c>
+      <c r="M95">
+        <v>-0.5619970480391747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3173524749624611</v>
+        <v>-0.1761512979476529</v>
       </c>
       <c r="C97">
-        <v>0.008084934315723845</v>
+        <v>-0.005609105116762267</v>
       </c>
       <c r="D97">
-        <v>0.8637542443920405</v>
+        <v>-0.7658472252511764</v>
       </c>
       <c r="E97">
-        <v>0.1863706643653155</v>
+        <v>-0.5448384837194707</v>
       </c>
       <c r="F97">
-        <v>-0.07103010600776083</v>
+        <v>-0.05721011199330717</v>
       </c>
       <c r="G97">
-        <v>0.04994248310522464</v>
+        <v>0.06076521844689019</v>
       </c>
       <c r="H97">
-        <v>-0.04811604038037216</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.04375435691198262</v>
+      </c>
+      <c r="I97">
+        <v>-0.04575544586121421</v>
+      </c>
+      <c r="J97">
+        <v>0.08026841509947497</v>
+      </c>
+      <c r="K97">
+        <v>-0.004454734433859492</v>
+      </c>
+      <c r="L97">
+        <v>0.02298716592083774</v>
+      </c>
+      <c r="M97">
+        <v>0.02648290839949176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2565114328299949</v>
+        <v>-0.2601508967788529</v>
       </c>
       <c r="C98">
-        <v>0.1218755297465623</v>
+        <v>-0.1294791105444549</v>
       </c>
       <c r="D98">
-        <v>-0.1821951254120333</v>
+        <v>0.148183552751193</v>
       </c>
       <c r="E98">
-        <v>0.3624861971280051</v>
+        <v>-0.1877847520195327</v>
       </c>
       <c r="F98">
-        <v>-0.06895489755404109</v>
+        <v>0.2845770667406409</v>
       </c>
       <c r="G98">
-        <v>0.5186213652607202</v>
+        <v>0.307178961149223</v>
       </c>
       <c r="H98">
-        <v>0.2329589134742836</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.1177425387794406</v>
+      </c>
+      <c r="I98">
+        <v>-0.2669954060525392</v>
+      </c>
+      <c r="J98">
+        <v>-0.3292711026208451</v>
+      </c>
+      <c r="K98">
+        <v>-0.3758444233085843</v>
+      </c>
+      <c r="L98">
+        <v>-0.3799966090016412</v>
+      </c>
+      <c r="M98">
+        <v>0.04197855721536255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06559294593498653</v>
+        <v>-0.07395603063060197</v>
       </c>
       <c r="C99">
-        <v>0.07039968169004819</v>
+        <v>-0.06125476066332037</v>
       </c>
       <c r="D99">
-        <v>0.05346490317915341</v>
+        <v>-0.02832485748366307</v>
       </c>
       <c r="E99">
-        <v>-0.1207903769929894</v>
+        <v>0.05034360898227962</v>
       </c>
       <c r="F99">
-        <v>0.6043345092308039</v>
+        <v>0.00959505848388024</v>
       </c>
       <c r="G99">
-        <v>0.302021407750188</v>
+        <v>-0.04795333968230329</v>
       </c>
       <c r="H99">
-        <v>0.4990834691565326</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.348976956854985</v>
+      </c>
+      <c r="I99">
+        <v>-0.2551956971001758</v>
+      </c>
+      <c r="J99">
+        <v>-0.07844079134036708</v>
+      </c>
+      <c r="K99">
+        <v>-0.3740797299866934</v>
+      </c>
+      <c r="L99">
+        <v>0.5467660003772535</v>
+      </c>
+      <c r="M99">
+        <v>-0.007240183566329728</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04606598230155202</v>
+        <v>-0.04518589914566504</v>
       </c>
       <c r="C101">
-        <v>0.008851401416877376</v>
+        <v>-0.02244952473296127</v>
       </c>
       <c r="D101">
-        <v>-0.01323524157974548</v>
+        <v>0.01118704443153733</v>
       </c>
       <c r="E101">
-        <v>-0.0247900737899351</v>
+        <v>0.0234651321771687</v>
       </c>
       <c r="F101">
-        <v>-0.04033181899806172</v>
+        <v>-0.04661230631824236</v>
       </c>
       <c r="G101">
-        <v>-0.01782789353874871</v>
+        <v>-0.05284756595139958</v>
       </c>
       <c r="H101">
-        <v>-0.009676522995109139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.05429867948866227</v>
+      </c>
+      <c r="I101">
+        <v>0.005069642948809412</v>
+      </c>
+      <c r="J101">
+        <v>-0.01252114693033073</v>
+      </c>
+      <c r="K101">
+        <v>-0.001024874461216198</v>
+      </c>
+      <c r="L101">
+        <v>-0.01882620236524102</v>
+      </c>
+      <c r="M101">
+        <v>-0.0138827213603439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
